--- a/data/trans_bre/P22_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P22_R3-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.297035209918265</v>
+        <v>-7.413686827854741</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.398301155337409</v>
+        <v>-5.235286329192095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.449022695348412</v>
+        <v>-2.489706566968155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.37264659471691</v>
+        <v>-2.367734354509652</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7976274261925586</v>
+        <v>-0.7899432249771685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8180210534980231</v>
+        <v>-0.7995790674689598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7702440373516807</v>
+        <v>-0.7587868499353907</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5518603325321909</v>
+        <v>-0.5384480880087</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0104632057407748</v>
+        <v>0.4051785737965757</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.142805348299299</v>
+        <v>1.124176488602434</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.431528574629273</v>
+        <v>2.673424155719248</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.685082694138545</v>
+        <v>1.941422156444582</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05974443860451226</v>
+        <v>0.1936883513813919</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5406059061215133</v>
+        <v>0.4981259872161339</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.910196284538579</v>
+        <v>2.571996706032881</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.975522876564759</v>
+        <v>1.174361435035925</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.009650980471806</v>
+        <v>-1.969507718732362</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.870851899346567</v>
+        <v>-3.71286572886254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7172845037422368</v>
+        <v>-0.7236823918516697</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.064807402413076</v>
+        <v>-3.30426781130153</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4140700425233901</v>
+        <v>-0.3790998620555469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4824989095524819</v>
+        <v>-0.4868306965452323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3120203051436175</v>
+        <v>-0.2843693884717665</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.60793445682001</v>
+        <v>-0.6496422285508561</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.116621407198519</v>
+        <v>2.95698311272918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.222799800293278</v>
+        <v>3.196336391660086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.179403217717971</v>
+        <v>3.247048549405629</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.221015503763775</v>
+        <v>1.177393695208752</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.097172995527554</v>
+        <v>1.069353140510885</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7981013212618466</v>
+        <v>0.7888351926393857</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.234125954321992</v>
+        <v>3.10640098594601</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6773087683313409</v>
+        <v>0.6282812185557481</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.663019723114764</v>
+        <v>-3.370114623125308</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.999647909011803</v>
+        <v>-5.618770853812784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.406415904252271</v>
+        <v>-7.517233102000199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.647037798867785</v>
+        <v>-4.728177360522263</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7783723838316219</v>
+        <v>-0.7633135595112566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.805391572910874</v>
+        <v>-0.7700460186007571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7609473934973947</v>
+        <v>-0.7830369766087537</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.8703810967441626</v>
+        <v>-0.862080965069622</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.635053069171237</v>
+        <v>1.69724320986758</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8210280359299547</v>
+        <v>0.9873177853906016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.7470087825011924</v>
+        <v>-0.576121069040986</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2530666427778041</v>
+        <v>0.005876583761091366</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.039060180258685</v>
+        <v>1.147830270691264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5246086749673974</v>
+        <v>0.442565037607808</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.09461894272654912</v>
+        <v>-0.05555934683735395</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2770873673587909</v>
+        <v>0.1659429769416017</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.891785208471938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.202578154577989</v>
+        <v>-2.202578154577987</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.463833546474928</v>
@@ -949,7 +949,7 @@
         <v>-0.4449216155190073</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3721272072253976</v>
+        <v>-0.3721272072253974</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.192703243561789</v>
+        <v>-6.143721065571423</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.748314658191676</v>
+        <v>-5.843949527003813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.521463523627216</v>
+        <v>-4.784808919857682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.473985870367573</v>
+        <v>-5.808050431727247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7436060809674941</v>
+        <v>-0.7373678367759859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6363846952313843</v>
+        <v>-0.6479312034851795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8056677585070575</v>
+        <v>-0.8142838959306767</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6626259289839175</v>
+        <v>-0.6652366412076864</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1333750508733108</v>
+        <v>0.3416565480737581</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.125389107555316</v>
+        <v>1.187481590949892</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8675287842888535</v>
+        <v>0.6403483604633311</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6429203819161988</v>
+        <v>0.4884383556805567</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06834976009655164</v>
+        <v>0.1219762706314402</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2577354085327174</v>
+        <v>0.2461292247396501</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4789284311209204</v>
+        <v>0.3149664022716203</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2199224407495179</v>
+        <v>0.1829272792258019</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-3.217216934451213</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.062882342687545</v>
+        <v>-1.062882342687546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5921126296485297</v>
@@ -1049,7 +1049,7 @@
         <v>-0.7269390664569728</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3316442339051536</v>
+        <v>-0.3316442339051537</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.621150011668005</v>
+        <v>-1.698572883612893</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.10627008335675</v>
+        <v>-3.072747982210393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.182117524850443</v>
+        <v>-7.221504320052278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.835073453848186</v>
+        <v>-3.545940590805642</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3144982633700472</v>
+        <v>-0.3143511436176749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7972276209526404</v>
+        <v>-0.8288945575848309</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.7530422786130099</v>
+        <v>-0.7394474085093239</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.275083556038915</v>
+        <v>7.749963155367499</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.535477686424542</v>
+        <v>2.320503230185778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.2773127513126673</v>
+        <v>-0.128612799181686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8678374952827417</v>
+        <v>1.067104687342004</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.737730603140741</v>
+        <v>2.63338491616352</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.461466642625051</v>
+        <v>3.885985243029181</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1554404473310546</v>
+        <v>0.2757574918010476</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5682202950291968</v>
+        <v>0.6387105960639106</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-3.586099424007714</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2288532523182035</v>
+        <v>0.2288532523182025</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4506847920996291</v>
@@ -1149,7 +1149,7 @@
         <v>-0.7202293062211363</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1084900780299565</v>
+        <v>0.108490078029956</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.480919445558031</v>
+        <v>-6.34641413955889</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.777515430028366</v>
+        <v>-6.799593046260894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.079836146235582</v>
+        <v>-7.372199122706268</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.758348503182511</v>
+        <v>-1.66258199819442</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7814741529112007</v>
+        <v>-0.7774916990203887</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8891314243916114</v>
+        <v>-0.9062197562276733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.929770574379761</v>
+        <v>-0.9359477282171077</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5657230310502128</v>
+        <v>-0.5531643668274582</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8143981118851337</v>
+        <v>0.5073240743784729</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2602485733399832</v>
+        <v>0.05951864597105076</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.5746466811657031</v>
+        <v>-0.7801941209220942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.952916434042054</v>
+        <v>1.990084008904248</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2304046343171261</v>
+        <v>0.2614073305031399</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2258404065726276</v>
+        <v>0.2088859350901726</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09323638071689284</v>
+        <v>-0.05996835613008041</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.459465923779938</v>
+        <v>1.619582991028435</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5475191047841517</v>
+        <v>-0.5819052397787782</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.520878996089456</v>
+        <v>-3.527632182925813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.298406077245195</v>
+        <v>-4.652815224914701</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.531348769135059</v>
+        <v>-4.180165997551994</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2003591972315659</v>
+        <v>-0.2001483720052987</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6476765418477221</v>
+        <v>-0.6445835451949001</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5331324775264629</v>
+        <v>-0.5575046825930966</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6586545254459204</v>
+        <v>-0.6631958800938198</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.258184712667523</v>
+        <v>3.120962008060292</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8841791019112499</v>
+        <v>0.980315405756749</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.748210152508187</v>
+        <v>0.8886145883983294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4197425567050055</v>
+        <v>0.5581694731411655</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.046491757574659</v>
+        <v>1.763157687325258</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3670363631779367</v>
+        <v>0.4361227747651085</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.148651322592169</v>
+        <v>0.1919869119830532</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2230410122642068</v>
+        <v>0.2213271007468176</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.08566591670747664</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.1675189827346997</v>
+        <v>-0.1675189827346983</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.346147585816338</v>
@@ -1349,7 +1349,7 @@
         <v>0.01897033099546669</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.05015190474041236</v>
+        <v>-0.05015190474041196</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.387024440278887</v>
+        <v>1.446894452155237</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.461444592564265</v>
+        <v>-2.605951773019616</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.138071026667691</v>
+        <v>-2.315033035759251</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.887945247204038</v>
+        <v>-1.912078478836302</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3639225760410211</v>
+        <v>0.3377235381649883</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5164521902252625</v>
+        <v>-0.5042257705748588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3778177607738833</v>
+        <v>-0.4047816013440602</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4372142987433425</v>
+        <v>-0.4422455747359916</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.635729828938131</v>
+        <v>5.527504933824166</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.86580229774645</v>
+        <v>1.879459438129514</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.281809243671566</v>
+        <v>2.130651160741047</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.327932033840975</v>
+        <v>1.438110101166324</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.017574196819985</v>
+        <v>3.000644097710818</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.718639264381712</v>
+        <v>0.7744502051333823</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.619687555051775</v>
+        <v>0.6378280907584156</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5219779966335802</v>
+        <v>0.5995334255186577</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-1.188204050571118</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.9038250990744592</v>
+        <v>-0.9038250990744598</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08191414670524207</v>
@@ -1449,7 +1449,7 @@
         <v>-0.2575927906365981</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.2462758750173128</v>
+        <v>-0.2462758750173129</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5804303668845634</v>
+        <v>-0.6701655862730012</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.250740269195193</v>
+        <v>-2.357898319121735</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.15651078137034</v>
+        <v>-2.341554552777332</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.803788532353272</v>
+        <v>-1.776399752397342</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.1335386152345145</v>
+        <v>-0.1482585226059152</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.4315360674581249</v>
+        <v>-0.4468716088602718</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.4137490811901419</v>
+        <v>-0.4438380148756771</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.4153493846644019</v>
+        <v>-0.4163835965568351</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.309571410050719</v>
+        <v>1.324012501011392</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1770800181183801</v>
+        <v>-0.1087364163199595</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.3323935112748981</v>
+        <v>-0.218143999181594</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.1194987912226749</v>
+        <v>-0.08038284357510307</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3881461253845174</v>
+        <v>0.3887141802624553</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.03866918064201851</v>
+        <v>-0.02347664950390319</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.07630029788584256</v>
+        <v>-0.04526671494955801</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.0324410189753503</v>
+        <v>-0.02487217350186665</v>
       </c>
     </row>
     <row r="31">
